--- a/results/mp/logistic/corona/confidence/84/masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,57 +40,63 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>die</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>falling</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>cut</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>lower</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
@@ -100,24 +106,24 @@
     <t>demand</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
     <t>co</t>
   </si>
   <si>
-    <t>19</t>
+    <t>to</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
   <si>
     <t>the</t>
   </si>
   <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -127,19 +133,40 @@
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>interesting</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>special</t>
@@ -148,87 +175,66 @@
     <t>good</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>won</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>save</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>hope</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
@@ -236,9 +242,6 @@
   </si>
   <si>
     <t>and</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>corona</t>
@@ -599,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,10 +610,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -668,13 +671,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8611111111111112</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -689,7 +692,7 @@
         <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -718,13 +721,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8333333333333334</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -736,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K4">
         <v>0.9322033898305084</v>
@@ -768,13 +771,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -786,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -810,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -818,13 +821,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8082191780821918</v>
+        <v>0.75</v>
       </c>
       <c r="C6">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -836,19 +839,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -860,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -868,13 +871,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7894736842105263</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -889,16 +892,16 @@
         <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>0.8461538461538461</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -910,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -918,13 +921,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7586206896551724</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -939,16 +942,16 @@
         <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>0.8381201044386423</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L8">
-        <v>321</v>
+        <v>27</v>
       </c>
       <c r="M8">
-        <v>321</v>
+        <v>27</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -960,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>62</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -968,13 +971,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7027027027027027</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -986,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K9">
-        <v>0.8181818181818182</v>
+        <v>0.8172323759791122</v>
       </c>
       <c r="L9">
-        <v>27</v>
+        <v>313</v>
       </c>
       <c r="M9">
-        <v>27</v>
+        <v>313</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1010,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1018,13 +1021,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5932203389830508</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C10">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1036,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1060,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1068,13 +1071,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5343915343915344</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="C11">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="D11">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1086,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>0.8</v>
+        <v>0.8046875</v>
       </c>
       <c r="L11">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="M11">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1110,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1118,13 +1121,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5294117647058824</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1136,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>0.7926829268292683</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L12">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="M12">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1160,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1168,13 +1171,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.525</v>
+        <v>0.5368217054263565</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>277</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>277</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1186,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>19</v>
+        <v>239</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>0.7890625</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L13">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="M13">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1210,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1218,13 +1221,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5077519379844961</v>
+        <v>0.5291005291005291</v>
       </c>
       <c r="C14">
-        <v>262</v>
+        <v>100</v>
       </c>
       <c r="D14">
-        <v>262</v>
+        <v>100</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1236,19 +1239,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>254</v>
+        <v>89</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>0.7830188679245284</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L14">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="M14">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1260,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1268,13 +1271,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4630872483221476</v>
+        <v>0.5</v>
       </c>
       <c r="C15">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1286,10 +1289,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K15">
         <v>0.7777777777777778</v>
@@ -1318,13 +1321,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4133333333333333</v>
+        <v>0.4429530201342282</v>
       </c>
       <c r="C16">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="D16">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1336,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K16">
-        <v>0.7758620689655172</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1360,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1368,13 +1371,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3916666666666667</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="C17">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1386,19 +1389,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>219</v>
+        <v>31</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K17">
-        <v>0.7692307692307693</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M17">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1410,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1418,13 +1421,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3571428571428572</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1436,31 +1439,31 @@
         <v>0</v>
       </c>
       <c r="H18">
+        <v>43</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18">
+        <v>0.775</v>
+      </c>
+      <c r="L18">
+        <v>124</v>
+      </c>
+      <c r="M18">
+        <v>124</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>36</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K18">
-        <v>0.7676056338028169</v>
-      </c>
-      <c r="L18">
-        <v>109</v>
-      </c>
-      <c r="M18">
-        <v>109</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1468,13 +1471,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2727272727272727</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="D19">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1486,19 +1489,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>56</v>
+        <v>208</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K19">
-        <v>0.7659574468085106</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L19">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1510,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1518,13 +1521,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2444444444444444</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1536,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K20">
-        <v>0.75</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L20">
         <v>36</v>
@@ -1560,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1568,13 +1571,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2380952380952381</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="C21">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1586,19 +1589,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K21">
-        <v>0.7407407407407407</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1610,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1618,13 +1621,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1420911528150134</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C22">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D22">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1636,19 +1639,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>320</v>
+        <v>65</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K22">
-        <v>0.7301587301587301</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L22">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="M22">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1660,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1668,37 +1671,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.01430976430976431</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="C23">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="D23">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="E23">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>2342</v>
+        <v>188</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K23">
-        <v>0.7209302325581395</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1710,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1718,37 +1721,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.01288244766505636</v>
+        <v>0.1447721179624665</v>
       </c>
       <c r="C24">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D24">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E24">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>3065</v>
+        <v>319</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K24">
-        <v>0.675</v>
+        <v>0.6529411764705882</v>
       </c>
       <c r="L24">
-        <v>27</v>
+        <v>222</v>
       </c>
       <c r="M24">
-        <v>27</v>
+        <v>222</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1760,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1768,37 +1771,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.009813084112149532</v>
+        <v>0.01168770453482936</v>
       </c>
       <c r="C25">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D25">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E25">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="F25">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>2119</v>
+        <v>2114</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K25">
-        <v>0.6571428571428571</v>
+        <v>0.65</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1810,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1818,49 +1821,49 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006608357628765792</v>
+        <v>0.009255363904080775</v>
       </c>
       <c r="C26">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="E26">
-        <v>0.37</v>
+        <v>0.08</v>
       </c>
       <c r="F26">
-        <v>0.63</v>
+        <v>0.92</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>5111</v>
+        <v>2355</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K26">
-        <v>0.6285714285714286</v>
+        <v>0.6054421768707483</v>
       </c>
       <c r="L26">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="M26">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>26</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1868,37 +1871,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.005337665351589696</v>
+        <v>0.009026434558349452</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D27">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E27">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="F27">
-        <v>0.55</v>
+        <v>0.85</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>4286</v>
+        <v>3074</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K27">
-        <v>0.611764705882353</v>
+        <v>0.6</v>
       </c>
       <c r="L27">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="M27">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1910,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>132</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1918,37 +1921,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.005224030540486237</v>
+        <v>0.005109150023223409</v>
       </c>
       <c r="C28">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E28">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="F28">
-        <v>0.5800000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>4951</v>
+        <v>4284</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K28">
-        <v>0.5864406779661017</v>
+        <v>0.6</v>
       </c>
       <c r="L28">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1960,21 +1963,45 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.005035246727089627</v>
+      </c>
+      <c r="C29">
+        <v>25</v>
+      </c>
+      <c r="D29">
+        <v>56</v>
+      </c>
+      <c r="E29">
+        <v>0.55</v>
+      </c>
+      <c r="F29">
+        <v>0.45</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>4940</v>
+      </c>
       <c r="J29" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K29">
-        <v>0.5851063829787234</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L29">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="M29">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1986,21 +2013,45 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>39</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:17">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>0.004862867146469559</v>
+      </c>
+      <c r="C30">
+        <v>25</v>
+      </c>
+      <c r="D30">
+        <v>49</v>
+      </c>
+      <c r="E30">
+        <v>0.49</v>
+      </c>
+      <c r="F30">
+        <v>0.51</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>5116</v>
+      </c>
       <c r="J30" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K30">
-        <v>0.5846153846153846</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L30">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M30">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2012,21 +2063,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K31">
-        <v>0.5815899581589958</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L31">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="M31">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2038,47 +2089,47 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K32">
-        <v>0.58</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L32">
+        <v>36</v>
+      </c>
+      <c r="M32">
+        <v>36</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>29</v>
-      </c>
-      <c r="M32">
-        <v>29</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>21</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K33">
-        <v>0.5757575757575758</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="M33">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2090,21 +2141,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K34">
-        <v>0.5168539325842697</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L34">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M34">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2116,21 +2167,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K35">
-        <v>0.4761904761904762</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2142,21 +2193,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K36">
-        <v>0.4509803921568628</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L36">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M36">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2168,21 +2219,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K37">
-        <v>0.3424657534246575</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L37">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M37">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2194,21 +2245,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K38">
-        <v>0.328125</v>
+        <v>0.3287671232876712</v>
       </c>
       <c r="L38">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M38">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2220,21 +2271,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K39">
-        <v>0.282051282051282</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="L39">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M39">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2246,105 +2297,105 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K40">
-        <v>0.02591973244147157</v>
+        <v>0.02335279399499583</v>
       </c>
       <c r="L40">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M40">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N40">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="O40">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>1165</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K41">
-        <v>0.0105026256564141</v>
+        <v>0.009767092411720512</v>
       </c>
       <c r="L41">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M41">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N41">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O41">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>2638</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="K42">
-        <v>0.00919732441471572</v>
+        <v>0.006236169784751559</v>
       </c>
       <c r="L42">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M42">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="N42">
-        <v>0.92</v>
+        <v>0.55</v>
       </c>
       <c r="O42">
-        <v>0.07999999999999996</v>
+        <v>0.45</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>2370</v>
+        <v>4940</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K43">
-        <v>0.006267627702914447</v>
+        <v>0.005956112852664576</v>
       </c>
       <c r="L43">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M43">
         <v>30</v>
       </c>
       <c r="N43">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="O43">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
@@ -2355,80 +2406,54 @@
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K44">
-        <v>0.004413472706155633</v>
+        <v>0.005109150023223409</v>
       </c>
       <c r="L44">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M44">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N44">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="O44">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>4286</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K45">
-        <v>0.003897875657766517</v>
+        <v>0.004669260700389105</v>
       </c>
       <c r="L45">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M45">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="N45">
-        <v>0.37</v>
+        <v>0.49</v>
       </c>
       <c r="O45">
-        <v>0.63</v>
+        <v>0.51</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>5111</v>
-      </c>
-    </row>
-    <row r="46" spans="10:17">
-      <c r="J46" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K46">
-        <v>0.003822937625754527</v>
-      </c>
-      <c r="L46">
-        <v>19</v>
-      </c>
-      <c r="M46">
-        <v>45</v>
-      </c>
-      <c r="N46">
-        <v>0.42</v>
-      </c>
-      <c r="O46">
-        <v>0.5800000000000001</v>
-      </c>
-      <c r="P46" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q46">
-        <v>4951</v>
+        <v>5116</v>
       </c>
     </row>
   </sheetData>
